--- a/data/00-raw-data/percent_us_women_house_rep.xlsx
+++ b/data/00-raw-data/percent_us_women_house_rep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PersonalFolder\SeniorFall\anly-501-project-5cminsuhlim\data\00-raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13DD2DB-EAAD-4FD4-A5FE-4A27107FD45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0DD105-EAAF-4CB7-9C0A-8B4321CE17F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0B983CB9-C34F-4457-A9FF-95B11D3A34BC}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0B983CB9-C34F-4457-A9FF-95B11D3A34BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Starting date of congressional term</t>
-  </si>
-  <si>
-    <t>Share of U.S. representatives who are women</t>
   </si>
   <si>
     <r>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>PEW RESEARCH CENTER</t>
+  </si>
+  <si>
+    <t>Share of U.S. representatives who are women</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,7 +536,7 @@
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="135.75" thickBot="1">
+    <row r="1" spans="1:2" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,12 +544,12 @@
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="90">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -784,19 +784,19 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="228">
+    <row r="33" spans="1:1" ht="57">
       <c r="A33" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="71.25">
+      <c r="A35" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="342">
-      <c r="A35" s="8" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="71.25">
-      <c r="A37" s="9" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
